--- a/lecture/contents.xlsx
+++ b/lecture/contents.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wistaria/Dropbox/Development/computer-experiments/lecture/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16960" windowHeight="11640" tabRatio="500"/>
+    <workbookView xWindow="27640" yWindow="900" windowWidth="16960" windowHeight="11640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>file</t>
     <phoneticPr fontId="1"/>
@@ -64,18 +72,6 @@
   </si>
   <si>
     <t>01_ssh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10_error</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11_newton</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12_algebraic</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -103,18 +99,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>20_ode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>22_numerov</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>21_symplectic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>常微分方程式の初期値問題</t>
   </si>
   <si>
@@ -139,6 +123,94 @@
   </si>
   <si>
     <t>91_subversion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1_basics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>algebraic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lapack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bisection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exercise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>individual</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2_ode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>symplectic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>numerov</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_linear_system</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4_eigenvalue_problem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sparse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>svd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double-well</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>direct</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iterative</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exercise</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -191,6 +263,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -516,160 +593,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="A1:XFD1048576"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="C25" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
+      <c r="G25">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/lecture/contents.xlsx
+++ b/lecture/contents.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27640" yWindow="900" windowWidth="16960" windowHeight="11640" tabRatio="500"/>
+    <workbookView xWindow="-22120" yWindow="6000" windowWidth="16960" windowHeight="11640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>file</t>
     <phoneticPr fontId="1"/>
@@ -211,6 +211,38 @@
   </si>
   <si>
     <t>exercise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5_linear_regression</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6_randomized</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>randomized</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>integration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｒng</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcmc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>histogram</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>process</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -593,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -889,24 +921,67 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C32" t="s">
         <v>19</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>21</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C33" t="s">
         <v>20</v>
       </c>
-      <c r="G25">
+      <c r="G33">
         <v>1</v>
       </c>
     </row>

--- a/lecture/contents.xlsx
+++ b/lecture/contents.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-22120" yWindow="6000" windowWidth="16960" windowHeight="11640" tabRatio="500"/>
+    <workbookView xWindow="10100" yWindow="460" windowWidth="16960" windowHeight="11640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="A26:XFD26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -932,30 +932,54 @@
       <c r="B25" t="s">
         <v>46</v>
       </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>51</v>
       </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>47</v>
       </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>48</v>
       </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>49</v>
       </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>50</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">

--- a/lecture/contents.xlsx
+++ b/lecture/contents.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="460" windowWidth="16960" windowHeight="11640" tabRatio="500"/>
+    <workbookView xWindow="31180" yWindow="14080" windowWidth="16960" windowHeight="11640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>file</t>
     <phoneticPr fontId="1"/>
@@ -218,31 +218,95 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6_randomized</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>randomized</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>process</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6_montecarlo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>statphys</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>counting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>transfer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rng</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>histogam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>integration</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ｒng</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mcmc</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>histogram</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>process</t>
+    <t>least-square</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kernel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bayes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exercise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7_optimization</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>optimization</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enclosure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>descent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>simplex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>annealing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comparison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exercise</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -625,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -852,7 +916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>43</v>
       </c>
@@ -860,7 +924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -874,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -885,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -896,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>39</v>
       </c>
@@ -904,7 +968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>40</v>
       </c>
@@ -912,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -920,93 +984,199 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>47</v>
       </c>
-      <c r="D27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>48</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>49</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>50</v>
       </c>
       <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C46" t="s">
         <v>19</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
         <v>21</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C47" t="s">
         <v>20</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lecture/contents.xlsx
+++ b/lecture/contents.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wistaria/Dropbox/Development/computer-experiments/lecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180977A0-7EA6-7E47-83E0-3C1707B8E690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31180" yWindow="14080" windowWidth="16960" windowHeight="11640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>file</t>
     <phoneticPr fontId="1"/>
@@ -64,15 +65,7 @@
     <t>講義・実習の概要</t>
   </si>
   <si>
-    <t>00_about</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SSH (Secure Shell)</t>
-  </si>
-  <si>
-    <t>01_ssh</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>数値誤差</t>
@@ -309,12 +302,64 @@
     <t>exercise</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>about1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>about2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ssh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>env</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境整備</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matlab</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MATLAB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ビコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「計算機ハンドブック」に記載済</t>
+    <rPh sb="1" eb="4">
+      <t xml:space="preserve">ケイサンキ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">キサイ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">ズミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://utphys-comp.github.io</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -325,6 +370,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -348,13 +402,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -362,6 +419,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -688,20 +748,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -729,458 +789,508 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:11">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="D7">
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
         <v>17</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="D9">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+    <row r="19" spans="1:5">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14">
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16">
+    <row r="29" spans="1:5">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20">
-        <v>11</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
         <v>55</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>50</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>45</v>
       </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>46</v>
       </c>
       <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
+    <row r="37" spans="1:7">
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" t="s">
         <v>51</v>
       </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" t="s">
         <v>52</v>
       </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35">
-        <v>11</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36">
+      <c r="D40">
         <v>14</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" t="s">
         <v>59</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
+    <row r="45" spans="1:7">
+      <c r="B45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
+    <row r="46" spans="1:7">
+      <c r="B46" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
+    <row r="47" spans="1:7">
+      <c r="B47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
+    <row r="48" spans="1:7">
+      <c r="B48" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
         <v>18</v>
-      </c>
-      <c r="C46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="K6" r:id="rId1" xr:uid="{BA60AD7C-842C-E34A-8C4B-E9B4831AE254}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>